--- a/panchayat_api/uploads/javak.xlsx
+++ b/panchayat_api/uploads/javak.xlsx
@@ -562,7 +562,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,7 +645,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>categories!$A$2:$A$100</xm:f>
+            <xm:f>categories!$A$1:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -665,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
